--- a/src/net/datenwerke/rs/samples/templates/jxls/jxlsreports/grouping_collapsible_result.xlsx
+++ b/src/net/datenwerke/rs/samples/templates/jxls/jxlsreports/grouping_collapsible_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Desktop\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E38B8CD-9931-4E0D-B240-6A58C4FF526F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307A1C2C-FACA-4CBF-9B17-012E1E3B02C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24075" windowHeight="12885" xr2:uid="{1CB611AB-0FA2-4BD9-BB46-7BDCE764CC6B}"/>
   </bookViews>
@@ -55,13 +55,13 @@
     <t>Customers in ${_group.item.t_agg_customer_cus_country}</t>
   </si>
   <si>
-    <t>(Version: 1.0.0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Last tested with: ReportServer 4.0.0) </t>
-  </si>
-  <si>
     <t>Customers per country</t>
+  </si>
+  <si>
+    <t>(Version: 1.0.1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Last tested with: ReportServer 4.0.0-6053) </t>
   </si>
   <si>
     <t/>
@@ -1064,7 +1064,7 @@
   <dimension ref="A1:C125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="1"/>
@@ -1077,7 +1077,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30.75" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="2"/>
@@ -2340,12 +2340,12 @@
     </row>
     <row r="124" collapsed="true" ht="15.0" customHeight="true">
       <c r="A124" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="125" ht="15.0" customHeight="true">
       <c r="A125" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
